--- a/data/symulacje_punktowe.xlsx
+++ b/data/symulacje_punktowe.xlsx
@@ -1,37 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michalkowalik/Documents/GitHub/symulator_kultura_gry/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726E4784-B30A-CE44-BA6A-BAEA144C8408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Expected_Position</t>
+  </si>
+  <si>
+    <t>Prob_Champ</t>
+  </si>
+  <si>
+    <t>exp_points</t>
+  </si>
+  <si>
+    <t>elo</t>
+  </si>
+  <si>
+    <t>Jagiellonia</t>
+  </si>
+  <si>
+    <t>Lech Poznań</t>
+  </si>
+  <si>
+    <t>Raków</t>
+  </si>
+  <si>
+    <t>Górnik Zabrze</t>
+  </si>
+  <si>
+    <t>Cracovia</t>
+  </si>
+  <si>
+    <t>Korona Kielce</t>
+  </si>
+  <si>
+    <t>Pogoń Szczecin</t>
+  </si>
+  <si>
+    <t>Wisła Płock</t>
+  </si>
+  <si>
+    <t>Piast Gliwice</t>
+  </si>
+  <si>
+    <t>Zagłębie Lubin</t>
+  </si>
+  <si>
+    <t>Radomiak Radom</t>
+  </si>
+  <si>
+    <t>Motor Lublin</t>
+  </si>
+  <si>
+    <t>Arka Gdynia</t>
+  </si>
+  <si>
+    <t>Lechia Gdańsk</t>
+  </si>
+  <si>
+    <t>Widzew Łódź</t>
+  </si>
+  <si>
+    <t>Nieciecza</t>
+  </si>
+  <si>
+    <t>Katowice</t>
+  </si>
+  <si>
+    <t>Legia Warszawa</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +127,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,439 +451,392 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Expected_Position</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Prob_Champ</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>exp_points</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>elo</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Jagiellonia</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2.6422</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3914</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2.6421999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.39140000000000003</v>
+      </c>
+      <c r="E2">
         <v>65.5</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>1517</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Lech Poznań</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3.8456</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1796</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>3.8456000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.17960000000000001</v>
+      </c>
+      <c r="E3">
         <v>61.1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>1517</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Raków</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4.2152</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1284</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>4.2152000000000003</v>
+      </c>
+      <c r="D4">
+        <v>0.12839999999999999</v>
+      </c>
+      <c r="E4">
         <v>59.7</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>1532</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Górnik Zabrze</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4.7632</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>4.7632000000000003</v>
+      </c>
+      <c r="D5">
         <v>0.106</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>58.4</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>1456</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Legia Warsaw</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4.687400000000001</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>4.6874000000000011</v>
+      </c>
+      <c r="D6">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E6">
         <v>58.4</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>1497</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cracovia</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5.6604</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0592</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>5.6604000000000001</v>
+      </c>
+      <c r="D7">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="E7">
         <v>56</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>1458</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Korona Kielce</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>7.082999999999998</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0232</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>7.0829999999999984</v>
+      </c>
+      <c r="D8">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="E8">
         <v>52.2</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>1433</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Pogoń Szczecin</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>8.643999999999998</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0072</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>8.6439999999999984</v>
+      </c>
+      <c r="D9">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="E9">
         <v>48.6</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>1445</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Wisła Płock</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>10.5338</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>10.533799999999999</v>
+      </c>
+      <c r="D10">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E10">
         <v>44.7</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>1363</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Piast Gliwice</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
         <v>11.48</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E11">
         <v>42.2</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>1412</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Zagłębie Lubin</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
         <v>11.8962</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="D12">
+        <v>1E-3</v>
+      </c>
+      <c r="E12">
         <v>41.2</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>1379</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Radomiak Radom</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
         <v>10.9452</v>
       </c>
-      <c r="D13" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="E13" t="n">
+      <c r="D13">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E13">
         <v>43.5</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>1385</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Motor Lublin</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
         <v>12.366</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E14">
         <v>40.5</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>1363</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Arka Gdynia</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
         <v>15.4742</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="E15" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="D15">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E15">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F15">
         <v>1308</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Lechia Gdańsk</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
         <v>13.602</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="E16" t="n">
-        <v>37.8</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="D16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E16">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="F16">
         <v>1345</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Widzew Łódź</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>13.2792</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>13.279199999999999</v>
+      </c>
+      <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" t="n">
-        <v>38.2</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E17">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="F17">
         <v>1353</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Nieciecza</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
         <v>14.76</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E18">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="F18">
         <v>1329</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Katowice</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>15.1224</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>15.122400000000001</v>
+      </c>
+      <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E19">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="F19">
         <v>1359</v>
       </c>
     </row>
